--- a/webvars_tcp2uart.xlsx
+++ b/webvars_tcp2uart.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="543">
   <si>
     <t>Чтение</t>
   </si>
@@ -7004,13 +7004,16 @@
   </si>
   <si>
     <t>Конец блока (последнее слово) RTC RAM</t>
+  </si>
+  <si>
+    <t>wifi_aps_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -7159,6 +7162,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -7778,22 +7789,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7802,37 +7813,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7861,48 +7914,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -8271,34 +8282,34 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="33"/>
-      <c r="C5" s="43"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
@@ -8323,11 +8334,11 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="2:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
@@ -8393,8 +8404,8 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -8402,15 +8413,15 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -8418,8 +8429,8 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="9" t="s">
         <v>32</v>
       </c>
@@ -8479,11 +8490,11 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
     </row>
     <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
@@ -8603,17 +8614,17 @@
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="41"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="31"/>
-      <c r="C42" s="42"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="9" t="s">
         <v>74</v>
       </c>
@@ -8639,8 +8650,8 @@
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="32"/>
-      <c r="C45" s="32" t="s">
+      <c r="B45" s="20"/>
+      <c r="C45" s="20" t="s">
         <v>80</v>
       </c>
       <c r="D45" s="10" t="s">
@@ -8648,8 +8659,8 @@
       </c>
     </row>
     <row r="46" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
       <c r="D46" s="9" t="s">
         <v>82</v>
       </c>
@@ -8664,17 +8675,17 @@
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="41"/>
+      <c r="C48" s="22"/>
       <c r="D48" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="31"/>
-      <c r="C49" s="42"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="26"/>
       <c r="D49" s="9" t="s">
         <v>87</v>
       </c>
@@ -8702,10 +8713,10 @@
       </c>
     </row>
     <row r="52" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="20" t="s">
         <v>95</v>
       </c>
       <c r="D52" s="4" t="s">
@@ -8713,8 +8724,8 @@
       </c>
     </row>
     <row r="53" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
       <c r="D53" s="11" t="s">
         <v>97</v>
       </c>
@@ -8747,10 +8758,10 @@
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C57" s="20" t="s">
         <v>105</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -8758,8 +8769,8 @@
       </c>
     </row>
     <row r="58" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
       <c r="D58" s="11" t="s">
         <v>107</v>
       </c>
@@ -8783,10 +8794,10 @@
       </c>
     </row>
     <row r="61" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D61" s="4" t="s">
@@ -8794,8 +8805,8 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
       <c r="D62" s="11" t="s">
         <v>115</v>
       </c>
@@ -8810,10 +8821,10 @@
       </c>
     </row>
     <row r="64" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B64" s="32" t="s">
+      <c r="B64" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="C64" s="20" t="s">
         <v>119</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -8821,18 +8832,18 @@
       </c>
     </row>
     <row r="65" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
       <c r="D65" s="11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="35"/>
-      <c r="D66" s="36"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="18"/>
     </row>
     <row r="67" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="6" t="s">
@@ -8844,11 +8855,11 @@
       </c>
     </row>
     <row r="68" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C68" s="35"/>
-      <c r="D68" s="36"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="18"/>
     </row>
     <row r="69" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="6" t="s">
@@ -8937,7 +8948,9 @@
       </c>
     </row>
     <row r="77" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="6"/>
+      <c r="B77" s="6" t="s">
+        <v>542</v>
+      </c>
       <c r="C77" s="7" t="s">
         <v>149</v>
       </c>
@@ -8964,10 +8977,10 @@
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="32" t="s">
+      <c r="B80" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C80" s="32" t="s">
+      <c r="C80" s="20" t="s">
         <v>156</v>
       </c>
       <c r="D80" s="4" t="s">
@@ -8975,17 +8988,17 @@
       </c>
     </row>
     <row r="81" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
       <c r="D81" s="9" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="82" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="C82" s="30" t="s">
+      <c r="C82" s="25" t="s">
         <v>160</v>
       </c>
       <c r="D82" s="4" t="s">
@@ -8993,8 +9006,8 @@
       </c>
     </row>
     <row r="83" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
       <c r="D83" s="9" t="s">
         <v>162</v>
       </c>
@@ -9018,11 +9031,11 @@
       </c>
     </row>
     <row r="86" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="34" t="s">
+      <c r="B86" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C86" s="35"/>
-      <c r="D86" s="36"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="18"/>
     </row>
     <row r="87" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="6" t="s">
@@ -9175,11 +9188,11 @@
       </c>
     </row>
     <row r="101" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="34" t="s">
+      <c r="B101" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="C101" s="35"/>
-      <c r="D101" s="36"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="18"/>
     </row>
     <row r="102" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="6" t="s">
@@ -9325,11 +9338,11 @@
       </c>
     </row>
     <row r="115" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="34" t="s">
+      <c r="B115" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="C115" s="35"/>
-      <c r="D115" s="36"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="18"/>
     </row>
     <row r="116" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="6" t="s">
@@ -9350,11 +9363,11 @@
       </c>
     </row>
     <row r="118" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="34" t="s">
+      <c r="B118" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C118" s="35"/>
-      <c r="D118" s="36"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="18"/>
     </row>
     <row r="119" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="6" t="s">
@@ -9375,11 +9388,11 @@
       </c>
     </row>
     <row r="121" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="34" t="s">
+      <c r="B121" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C121" s="35"/>
-      <c r="D121" s="36"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="18"/>
     </row>
     <row r="122" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B122" s="6"/>
@@ -9490,10 +9503,10 @@
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B134" s="32" t="s">
+      <c r="B134" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="C134" s="32" t="s">
+      <c r="C134" s="20" t="s">
         <v>273</v>
       </c>
       <c r="D134" s="4" t="s">
@@ -9501,18 +9514,18 @@
       </c>
     </row>
     <row r="135" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="33"/>
-      <c r="C135" s="33"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="21"/>
       <c r="D135" s="12" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="136" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="34" t="s">
+      <c r="B136" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="C136" s="35"/>
-      <c r="D136" s="36"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="18"/>
     </row>
     <row r="137" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="6" t="s">
@@ -9551,11 +9564,11 @@
       </c>
     </row>
     <row r="141" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="38" t="s">
+      <c r="B141" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="C141" s="39"/>
-      <c r="D141" s="40"/>
+      <c r="C141" s="28"/>
+      <c r="D141" s="29"/>
     </row>
     <row r="142" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B142" s="6" t="s">
@@ -9618,11 +9631,11 @@
       </c>
     </row>
     <row r="148" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="34" t="s">
+      <c r="B148" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="C148" s="35"/>
-      <c r="D148" s="36"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="18"/>
     </row>
     <row r="149" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B149" s="6" t="s">
@@ -9634,17 +9647,17 @@
       </c>
     </row>
     <row r="150" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="34" t="s">
+      <c r="B150" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="C150" s="35"/>
-      <c r="D150" s="36"/>
+      <c r="C150" s="17"/>
+      <c r="D150" s="18"/>
     </row>
     <row r="151" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B151" s="32" t="s">
+      <c r="B151" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="C151" s="32" t="s">
+      <c r="C151" s="20" t="s">
         <v>306</v>
       </c>
       <c r="D151" s="4" t="s">
@@ -9652,17 +9665,17 @@
       </c>
     </row>
     <row r="152" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="31"/>
-      <c r="C152" s="31"/>
+      <c r="B152" s="24"/>
+      <c r="C152" s="24"/>
       <c r="D152" s="11" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="153" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B153" s="30" t="s">
+      <c r="B153" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="C153" s="30" t="s">
+      <c r="C153" s="25" t="s">
         <v>310</v>
       </c>
       <c r="D153" s="4" t="s">
@@ -9670,17 +9683,17 @@
       </c>
     </row>
     <row r="154" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="31"/>
-      <c r="C154" s="31"/>
+      <c r="B154" s="24"/>
+      <c r="C154" s="24"/>
       <c r="D154" s="11" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="155" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B155" s="30" t="s">
+      <c r="B155" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="C155" s="30" t="s">
+      <c r="C155" s="25" t="s">
         <v>313</v>
       </c>
       <c r="D155" s="4" t="s">
@@ -9688,15 +9701,15 @@
       </c>
     </row>
     <row r="156" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="31"/>
-      <c r="C156" s="31"/>
+      <c r="B156" s="24"/>
+      <c r="C156" s="24"/>
       <c r="D156" s="11" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B157" s="30"/>
-      <c r="C157" s="30" t="s">
+      <c r="B157" s="25"/>
+      <c r="C157" s="25" t="s">
         <v>315</v>
       </c>
       <c r="D157" s="4" t="s">
@@ -9704,22 +9717,22 @@
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B158" s="37"/>
-      <c r="C158" s="37"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="19"/>
       <c r="D158" s="14" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="159" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="31"/>
-      <c r="C159" s="31"/>
+      <c r="B159" s="24"/>
+      <c r="C159" s="24"/>
       <c r="D159" s="12" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B160" s="30"/>
-      <c r="C160" s="30" t="s">
+      <c r="B160" s="25"/>
+      <c r="C160" s="25" t="s">
         <v>319</v>
       </c>
       <c r="D160" s="4" t="s">
@@ -9727,40 +9740,40 @@
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B161" s="37"/>
-      <c r="C161" s="37"/>
+      <c r="B161" s="19"/>
+      <c r="C161" s="19"/>
       <c r="D161" s="14" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="162" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="31"/>
-      <c r="C162" s="31"/>
+      <c r="B162" s="24"/>
+      <c r="C162" s="24"/>
       <c r="D162" s="12" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B163" s="30" t="s">
+      <c r="B163" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C163" s="30"/>
+      <c r="C163" s="25"/>
       <c r="D163" s="4" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="164" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="31"/>
-      <c r="C164" s="31"/>
+      <c r="B164" s="24"/>
+      <c r="C164" s="24"/>
       <c r="D164" s="12" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B165" s="30" t="s">
+      <c r="B165" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="C165" s="30" t="s">
+      <c r="C165" s="25" t="s">
         <v>324</v>
       </c>
       <c r="D165" s="4" t="s">
@@ -9768,22 +9781,22 @@
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B166" s="37"/>
-      <c r="C166" s="37"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="19"/>
       <c r="D166" s="14" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="167" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="31"/>
-      <c r="C167" s="31"/>
+      <c r="B167" s="24"/>
+      <c r="C167" s="24"/>
       <c r="D167" s="12" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B168" s="30"/>
-      <c r="C168" s="30" t="s">
+      <c r="B168" s="25"/>
+      <c r="C168" s="25" t="s">
         <v>327</v>
       </c>
       <c r="D168" s="4" t="s">
@@ -9791,22 +9804,22 @@
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B169" s="37"/>
-      <c r="C169" s="37"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="19"/>
       <c r="D169" s="14" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="170" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="31"/>
-      <c r="C170" s="31"/>
+      <c r="B170" s="24"/>
+      <c r="C170" s="24"/>
       <c r="D170" s="12" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B171" s="30"/>
-      <c r="C171" s="30" t="s">
+      <c r="B171" s="25"/>
+      <c r="C171" s="25" t="s">
         <v>330</v>
       </c>
       <c r="D171" s="4" t="s">
@@ -9814,24 +9827,24 @@
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B172" s="37"/>
-      <c r="C172" s="37"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="19"/>
       <c r="D172" s="14" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="173" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="31"/>
-      <c r="C173" s="31"/>
+      <c r="B173" s="24"/>
+      <c r="C173" s="24"/>
       <c r="D173" s="12" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B174" s="30" t="s">
+      <c r="B174" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="C174" s="30" t="s">
+      <c r="C174" s="25" t="s">
         <v>334</v>
       </c>
       <c r="D174" s="4" t="s">
@@ -9839,22 +9852,22 @@
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B175" s="37"/>
-      <c r="C175" s="37"/>
+      <c r="B175" s="19"/>
+      <c r="C175" s="19"/>
       <c r="D175" s="14" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="176" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="31"/>
-      <c r="C176" s="31"/>
+      <c r="B176" s="24"/>
+      <c r="C176" s="24"/>
       <c r="D176" s="12" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B177" s="30"/>
-      <c r="C177" s="30" t="s">
+      <c r="B177" s="25"/>
+      <c r="C177" s="25" t="s">
         <v>337</v>
       </c>
       <c r="D177" s="4" t="s">
@@ -9862,15 +9875,15 @@
       </c>
     </row>
     <row r="178" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="31"/>
-      <c r="C178" s="31"/>
+      <c r="B178" s="24"/>
+      <c r="C178" s="24"/>
       <c r="D178" s="12" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B179" s="30"/>
-      <c r="C179" s="30" t="s">
+      <c r="B179" s="25"/>
+      <c r="C179" s="25" t="s">
         <v>339</v>
       </c>
       <c r="D179" s="4" t="s">
@@ -9878,17 +9891,17 @@
       </c>
     </row>
     <row r="180" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="31"/>
-      <c r="C180" s="31"/>
+      <c r="B180" s="24"/>
+      <c r="C180" s="24"/>
       <c r="D180" s="12" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B181" s="30" t="s">
+      <c r="B181" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="C181" s="30" t="s">
+      <c r="C181" s="25" t="s">
         <v>342</v>
       </c>
       <c r="D181" s="4" t="s">
@@ -9896,47 +9909,47 @@
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B182" s="37"/>
-      <c r="C182" s="37"/>
+      <c r="B182" s="19"/>
+      <c r="C182" s="19"/>
       <c r="D182" s="14" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="183" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="31"/>
-      <c r="C183" s="31"/>
+      <c r="B183" s="24"/>
+      <c r="C183" s="24"/>
       <c r="D183" s="12" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B184" s="30" t="s">
+      <c r="B184" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="C184" s="30"/>
+      <c r="C184" s="25"/>
       <c r="D184" s="4" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B185" s="37"/>
-      <c r="C185" s="37"/>
+      <c r="B185" s="19"/>
+      <c r="C185" s="19"/>
       <c r="D185" s="14" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="186" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="31"/>
-      <c r="C186" s="31"/>
+      <c r="B186" s="24"/>
+      <c r="C186" s="24"/>
       <c r="D186" s="12" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B187" s="30" t="s">
+      <c r="B187" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="C187" s="30" t="s">
+      <c r="C187" s="25" t="s">
         <v>349</v>
       </c>
       <c r="D187" s="4" t="s">
@@ -9944,24 +9957,24 @@
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B188" s="37"/>
-      <c r="C188" s="37"/>
+      <c r="B188" s="19"/>
+      <c r="C188" s="19"/>
       <c r="D188" s="14" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="189" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="31"/>
-      <c r="C189" s="31"/>
+      <c r="B189" s="24"/>
+      <c r="C189" s="24"/>
       <c r="D189" s="12" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B190" s="30" t="s">
+      <c r="B190" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="C190" s="30" t="s">
+      <c r="C190" s="25" t="s">
         <v>353</v>
       </c>
       <c r="D190" s="4" t="s">
@@ -9969,24 +9982,24 @@
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B191" s="37"/>
-      <c r="C191" s="37"/>
+      <c r="B191" s="19"/>
+      <c r="C191" s="19"/>
       <c r="D191" s="14" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="192" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="31"/>
-      <c r="C192" s="31"/>
+      <c r="B192" s="24"/>
+      <c r="C192" s="24"/>
       <c r="D192" s="12" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B193" s="30" t="s">
+      <c r="B193" s="25" t="s">
         <v>355</v>
       </c>
-      <c r="C193" s="30" t="s">
+      <c r="C193" s="25" t="s">
         <v>356</v>
       </c>
       <c r="D193" s="4" t="s">
@@ -9994,22 +10007,22 @@
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B194" s="37"/>
-      <c r="C194" s="37"/>
+      <c r="B194" s="19"/>
+      <c r="C194" s="19"/>
       <c r="D194" s="14" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="195" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="31"/>
-      <c r="C195" s="31"/>
+      <c r="B195" s="24"/>
+      <c r="C195" s="24"/>
       <c r="D195" s="12" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B196" s="30"/>
-      <c r="C196" s="30" t="s">
+      <c r="B196" s="25"/>
+      <c r="C196" s="25" t="s">
         <v>358</v>
       </c>
       <c r="D196" s="4" t="s">
@@ -10017,15 +10030,15 @@
       </c>
     </row>
     <row r="197" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="31"/>
-      <c r="C197" s="31"/>
+      <c r="B197" s="24"/>
+      <c r="C197" s="24"/>
       <c r="D197" s="12" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B198" s="30"/>
-      <c r="C198" s="30" t="s">
+      <c r="B198" s="25"/>
+      <c r="C198" s="25" t="s">
         <v>360</v>
       </c>
       <c r="D198" s="4" t="s">
@@ -10033,15 +10046,15 @@
       </c>
     </row>
     <row r="199" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="31"/>
-      <c r="C199" s="31"/>
+      <c r="B199" s="24"/>
+      <c r="C199" s="24"/>
       <c r="D199" s="12" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B200" s="30"/>
-      <c r="C200" s="30" t="s">
+      <c r="B200" s="25"/>
+      <c r="C200" s="25" t="s">
         <v>362</v>
       </c>
       <c r="D200" s="4" t="s">
@@ -10049,22 +10062,22 @@
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B201" s="37"/>
-      <c r="C201" s="37"/>
+      <c r="B201" s="19"/>
+      <c r="C201" s="19"/>
       <c r="D201" s="14" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="202" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="31"/>
-      <c r="C202" s="31"/>
+      <c r="B202" s="24"/>
+      <c r="C202" s="24"/>
       <c r="D202" s="12" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B203" s="30"/>
-      <c r="C203" s="30" t="s">
+      <c r="B203" s="25"/>
+      <c r="C203" s="25" t="s">
         <v>365</v>
       </c>
       <c r="D203" s="4" t="s">
@@ -10072,15 +10085,15 @@
       </c>
     </row>
     <row r="204" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="31"/>
-      <c r="C204" s="31"/>
+      <c r="B204" s="24"/>
+      <c r="C204" s="24"/>
       <c r="D204" s="12" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B205" s="30"/>
-      <c r="C205" s="30" t="s">
+      <c r="B205" s="25"/>
+      <c r="C205" s="25" t="s">
         <v>367</v>
       </c>
       <c r="D205" s="4" t="s">
@@ -10088,18 +10101,18 @@
       </c>
     </row>
     <row r="206" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="33"/>
-      <c r="C206" s="33"/>
+      <c r="B206" s="21"/>
+      <c r="C206" s="21"/>
       <c r="D206" s="12" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="207" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B207" s="34" t="s">
+      <c r="B207" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="C207" s="35"/>
-      <c r="D207" s="36"/>
+      <c r="C207" s="17"/>
+      <c r="D207" s="18"/>
     </row>
     <row r="208" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B208" s="6" t="s">
@@ -10113,10 +10126,10 @@
       </c>
     </row>
     <row r="209" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B209" s="32" t="s">
+      <c r="B209" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="C209" s="32" t="s">
+      <c r="C209" s="20" t="s">
         <v>374</v>
       </c>
       <c r="D209" s="4" t="s">
@@ -10124,17 +10137,17 @@
       </c>
     </row>
     <row r="210" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="31"/>
-      <c r="C210" s="31"/>
+      <c r="B210" s="24"/>
+      <c r="C210" s="24"/>
       <c r="D210" s="12" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="211" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B211" s="30" t="s">
+      <c r="B211" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="C211" s="30" t="s">
+      <c r="C211" s="25" t="s">
         <v>378</v>
       </c>
       <c r="D211" s="4" t="s">
@@ -10142,8 +10155,8 @@
       </c>
     </row>
     <row r="212" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="31"/>
-      <c r="C212" s="31"/>
+      <c r="B212" s="24"/>
+      <c r="C212" s="24"/>
       <c r="D212" s="12" t="s">
         <v>376</v>
       </c>
@@ -10182,10 +10195,10 @@
       </c>
     </row>
     <row r="216" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B216" s="32" t="s">
+      <c r="B216" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="C216" s="32" t="s">
+      <c r="C216" s="20" t="s">
         <v>390</v>
       </c>
       <c r="D216" s="4" t="s">
@@ -10193,17 +10206,17 @@
       </c>
     </row>
     <row r="217" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="31"/>
-      <c r="C217" s="31"/>
+      <c r="B217" s="24"/>
+      <c r="C217" s="24"/>
       <c r="D217" s="12" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="218" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B218" s="30" t="s">
+      <c r="B218" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="C218" s="30" t="s">
+      <c r="C218" s="25" t="s">
         <v>393</v>
       </c>
       <c r="D218" s="4" t="s">
@@ -10211,8 +10224,8 @@
       </c>
     </row>
     <row r="219" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="31"/>
-      <c r="C219" s="31"/>
+      <c r="B219" s="24"/>
+      <c r="C219" s="24"/>
       <c r="D219" s="12" t="s">
         <v>376</v>
       </c>
@@ -10251,10 +10264,10 @@
       </c>
     </row>
     <row r="223" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B223" s="32" t="s">
+      <c r="B223" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="C223" s="32" t="s">
+      <c r="C223" s="20" t="s">
         <v>405</v>
       </c>
       <c r="D223" s="4" t="s">
@@ -10262,17 +10275,17 @@
       </c>
     </row>
     <row r="224" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="31"/>
-      <c r="C224" s="31"/>
+      <c r="B224" s="24"/>
+      <c r="C224" s="24"/>
       <c r="D224" s="12" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="225" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B225" s="30" t="s">
+      <c r="B225" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="C225" s="30" t="s">
+      <c r="C225" s="25" t="s">
         <v>408</v>
       </c>
       <c r="D225" s="4" t="s">
@@ -10280,8 +10293,8 @@
       </c>
     </row>
     <row r="226" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="31"/>
-      <c r="C226" s="31"/>
+      <c r="B226" s="24"/>
+      <c r="C226" s="24"/>
       <c r="D226" s="12" t="s">
         <v>376</v>
       </c>
@@ -10309,10 +10322,10 @@
       </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B229" s="32" t="s">
+      <c r="B229" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="C229" s="32" t="s">
+      <c r="C229" s="20" t="s">
         <v>417</v>
       </c>
       <c r="D229" s="4" t="s">
@@ -10320,8 +10333,8 @@
       </c>
     </row>
     <row r="230" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="31"/>
-      <c r="C230" s="31"/>
+      <c r="B230" s="24"/>
+      <c r="C230" s="24"/>
       <c r="D230" s="9" t="s">
         <v>419</v>
       </c>
@@ -10393,8 +10406,8 @@
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B237" s="32"/>
-      <c r="C237" s="32" t="s">
+      <c r="B237" s="20"/>
+      <c r="C237" s="20" t="s">
         <v>438</v>
       </c>
       <c r="D237" s="4" t="s">
@@ -10402,24 +10415,24 @@
       </c>
     </row>
     <row r="238" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="33"/>
-      <c r="C238" s="33"/>
+      <c r="B238" s="21"/>
+      <c r="C238" s="21"/>
       <c r="D238" s="9" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="239" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="34" t="s">
+      <c r="B239" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="C239" s="35"/>
-      <c r="D239" s="36"/>
+      <c r="C239" s="17"/>
+      <c r="D239" s="18"/>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B240" s="32" t="s">
+      <c r="B240" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="C240" s="32" t="s">
+      <c r="C240" s="20" t="s">
         <v>443</v>
       </c>
       <c r="D240" s="4" t="s">
@@ -10427,17 +10440,17 @@
       </c>
     </row>
     <row r="241" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="31"/>
-      <c r="C241" s="31"/>
+      <c r="B241" s="24"/>
+      <c r="C241" s="24"/>
       <c r="D241" s="12" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B242" s="30" t="s">
+      <c r="B242" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="C242" s="30" t="s">
+      <c r="C242" s="25" t="s">
         <v>447</v>
       </c>
       <c r="D242" s="4" t="s">
@@ -10445,17 +10458,17 @@
       </c>
     </row>
     <row r="243" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B243" s="31"/>
-      <c r="C243" s="31"/>
+      <c r="B243" s="24"/>
+      <c r="C243" s="24"/>
       <c r="D243" s="12" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B244" s="30" t="s">
+      <c r="B244" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="C244" s="30" t="s">
+      <c r="C244" s="25" t="s">
         <v>451</v>
       </c>
       <c r="D244" s="4" t="s">
@@ -10463,17 +10476,17 @@
       </c>
     </row>
     <row r="245" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B245" s="31"/>
-      <c r="C245" s="31"/>
+      <c r="B245" s="24"/>
+      <c r="C245" s="24"/>
       <c r="D245" s="12" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B246" s="30" t="s">
+      <c r="B246" s="25" t="s">
         <v>454</v>
       </c>
-      <c r="C246" s="30" t="s">
+      <c r="C246" s="25" t="s">
         <v>455</v>
       </c>
       <c r="D246" s="4" t="s">
@@ -10481,17 +10494,17 @@
       </c>
     </row>
     <row r="247" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B247" s="31"/>
-      <c r="C247" s="31"/>
+      <c r="B247" s="24"/>
+      <c r="C247" s="24"/>
       <c r="D247" s="12" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B248" s="30" t="s">
+      <c r="B248" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="C248" s="30" t="s">
+      <c r="C248" s="25" t="s">
         <v>459</v>
       </c>
       <c r="D248" s="4" t="s">
@@ -10499,17 +10512,17 @@
       </c>
     </row>
     <row r="249" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B249" s="31"/>
-      <c r="C249" s="31"/>
+      <c r="B249" s="24"/>
+      <c r="C249" s="24"/>
       <c r="D249" s="12" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B250" s="30" t="s">
+      <c r="B250" s="25" t="s">
         <v>462</v>
       </c>
-      <c r="C250" s="30" t="s">
+      <c r="C250" s="25" t="s">
         <v>463</v>
       </c>
       <c r="D250" s="4" t="s">
@@ -10517,17 +10530,17 @@
       </c>
     </row>
     <row r="251" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B251" s="31"/>
-      <c r="C251" s="31"/>
+      <c r="B251" s="24"/>
+      <c r="C251" s="24"/>
       <c r="D251" s="12" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B252" s="30" t="s">
+      <c r="B252" s="25" t="s">
         <v>465</v>
       </c>
-      <c r="C252" s="30" t="s">
+      <c r="C252" s="25" t="s">
         <v>466</v>
       </c>
       <c r="D252" s="4" t="s">
@@ -10535,17 +10548,17 @@
       </c>
     </row>
     <row r="253" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B253" s="31"/>
-      <c r="C253" s="31"/>
+      <c r="B253" s="24"/>
+      <c r="C253" s="24"/>
       <c r="D253" s="12" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B254" s="30" t="s">
+      <c r="B254" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="C254" s="30" t="s">
+      <c r="C254" s="25" t="s">
         <v>469</v>
       </c>
       <c r="D254" s="4" t="s">
@@ -10553,17 +10566,17 @@
       </c>
     </row>
     <row r="255" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B255" s="31"/>
-      <c r="C255" s="31"/>
+      <c r="B255" s="24"/>
+      <c r="C255" s="24"/>
       <c r="D255" s="12" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B256" s="30" t="s">
+      <c r="B256" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="C256" s="30" t="s">
+      <c r="C256" s="25" t="s">
         <v>472</v>
       </c>
       <c r="D256" s="4" t="s">
@@ -10571,17 +10584,17 @@
       </c>
     </row>
     <row r="257" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B257" s="31"/>
-      <c r="C257" s="31"/>
+      <c r="B257" s="24"/>
+      <c r="C257" s="24"/>
       <c r="D257" s="12" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B258" s="30" t="s">
+      <c r="B258" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="C258" s="30" t="s">
+      <c r="C258" s="25" t="s">
         <v>475</v>
       </c>
       <c r="D258" s="4" t="s">
@@ -10589,17 +10602,17 @@
       </c>
     </row>
     <row r="259" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B259" s="31"/>
-      <c r="C259" s="31"/>
+      <c r="B259" s="24"/>
+      <c r="C259" s="24"/>
       <c r="D259" s="12" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B260" s="30" t="s">
+      <c r="B260" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="C260" s="30" t="s">
+      <c r="C260" s="25" t="s">
         <v>478</v>
       </c>
       <c r="D260" s="4" t="s">
@@ -10607,17 +10620,17 @@
       </c>
     </row>
     <row r="261" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B261" s="31"/>
-      <c r="C261" s="31"/>
+      <c r="B261" s="24"/>
+      <c r="C261" s="24"/>
       <c r="D261" s="12" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B262" s="30" t="s">
+      <c r="B262" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="C262" s="30" t="s">
+      <c r="C262" s="25" t="s">
         <v>481</v>
       </c>
       <c r="D262" s="4" t="s">
@@ -10625,17 +10638,17 @@
       </c>
     </row>
     <row r="263" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B263" s="31"/>
-      <c r="C263" s="31"/>
+      <c r="B263" s="24"/>
+      <c r="C263" s="24"/>
       <c r="D263" s="12" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B264" s="30" t="s">
+      <c r="B264" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="C264" s="30" t="s">
+      <c r="C264" s="25" t="s">
         <v>484</v>
       </c>
       <c r="D264" s="4" t="s">
@@ -10643,17 +10656,17 @@
       </c>
     </row>
     <row r="265" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B265" s="31"/>
-      <c r="C265" s="31"/>
+      <c r="B265" s="24"/>
+      <c r="C265" s="24"/>
       <c r="D265" s="12" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B266" s="30" t="s">
+      <c r="B266" s="25" t="s">
         <v>486</v>
       </c>
-      <c r="C266" s="30" t="s">
+      <c r="C266" s="25" t="s">
         <v>487</v>
       </c>
       <c r="D266" s="4" t="s">
@@ -10661,15 +10674,15 @@
       </c>
     </row>
     <row r="267" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B267" s="31"/>
-      <c r="C267" s="31"/>
+      <c r="B267" s="24"/>
+      <c r="C267" s="24"/>
       <c r="D267" s="12" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B268" s="30"/>
-      <c r="C268" s="30" t="s">
+      <c r="B268" s="25"/>
+      <c r="C268" s="25" t="s">
         <v>489</v>
       </c>
       <c r="D268" s="4" t="s">
@@ -10677,15 +10690,15 @@
       </c>
     </row>
     <row r="269" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B269" s="31"/>
-      <c r="C269" s="31"/>
+      <c r="B269" s="24"/>
+      <c r="C269" s="24"/>
       <c r="D269" s="9" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B270" s="30"/>
-      <c r="C270" s="30" t="s">
+      <c r="B270" s="25"/>
+      <c r="C270" s="25" t="s">
         <v>492</v>
       </c>
       <c r="D270" s="4" t="s">
@@ -10693,8 +10706,8 @@
       </c>
     </row>
     <row r="271" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B271" s="31"/>
-      <c r="C271" s="31"/>
+      <c r="B271" s="24"/>
+      <c r="C271" s="24"/>
       <c r="D271" s="9" t="s">
         <v>491</v>
       </c>
@@ -10704,6 +10717,127 @@
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="B270:B271"/>
+    <mergeCell ref="C270:C271"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="B264:B265"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="B266:B267"/>
+    <mergeCell ref="C266:C267"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="C256:C257"/>
+    <mergeCell ref="B258:B259"/>
+    <mergeCell ref="C258:C259"/>
+    <mergeCell ref="B260:B261"/>
+    <mergeCell ref="C260:C261"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="C250:C251"/>
+    <mergeCell ref="B252:B253"/>
+    <mergeCell ref="C252:C253"/>
+    <mergeCell ref="B254:B255"/>
+    <mergeCell ref="C254:C255"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="C244:C245"/>
+    <mergeCell ref="B246:B247"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="B248:B249"/>
+    <mergeCell ref="C248:C249"/>
+    <mergeCell ref="B237:B238"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="B242:B243"/>
+    <mergeCell ref="C242:C243"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="B207:D207"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="B200:B202"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="B190:B192"/>
+    <mergeCell ref="C190:C192"/>
+    <mergeCell ref="B193:B195"/>
+    <mergeCell ref="C193:C195"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="B181:B183"/>
+    <mergeCell ref="C181:C183"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="C184:C186"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="C174:C176"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="C160:C162"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B27:D27"/>
@@ -10718,127 +10852,6 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="B160:B162"/>
-    <mergeCell ref="C160:C162"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="B148:D148"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="B171:B173"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="C174:C176"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="C187:C189"/>
-    <mergeCell ref="B190:B192"/>
-    <mergeCell ref="C190:C192"/>
-    <mergeCell ref="B193:B195"/>
-    <mergeCell ref="C193:C195"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="B181:B183"/>
-    <mergeCell ref="C181:C183"/>
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="C184:C186"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="B207:D207"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="B200:B202"/>
-    <mergeCell ref="C200:C202"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="B225:B226"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="B216:B217"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="C244:C245"/>
-    <mergeCell ref="B246:B247"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="B248:B249"/>
-    <mergeCell ref="C248:C249"/>
-    <mergeCell ref="B237:B238"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="B242:B243"/>
-    <mergeCell ref="C242:C243"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="C256:C257"/>
-    <mergeCell ref="B258:B259"/>
-    <mergeCell ref="C258:C259"/>
-    <mergeCell ref="B260:B261"/>
-    <mergeCell ref="C260:C261"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="C250:C251"/>
-    <mergeCell ref="B252:B253"/>
-    <mergeCell ref="C252:C253"/>
-    <mergeCell ref="B254:B255"/>
-    <mergeCell ref="C254:C255"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="C268:C269"/>
-    <mergeCell ref="B270:B271"/>
-    <mergeCell ref="C270:C271"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="B264:B265"/>
-    <mergeCell ref="C264:C265"/>
-    <mergeCell ref="B266:B267"/>
-    <mergeCell ref="C266:C267"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10859,242 +10872,242 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="30" t="s">
         <v>494</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="31" t="s">
         <v>495</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="31" t="s">
         <v>496</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="31" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="32" t="s">
         <v>497</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="35" t="s">
         <v>499</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="35" t="s">
         <v>500</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="36" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="23"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24">
+      <c r="B6" s="38">
         <v>1100</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="39" t="s">
         <v>503</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="40" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24">
+      <c r="B7" s="38">
         <v>1101</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="39" t="s">
         <v>505</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="40" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24">
+      <c r="B8" s="38">
         <v>1102</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="39" t="s">
         <v>507</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="40" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="24">
+      <c r="B9" s="38">
         <v>1103</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="39" t="s">
         <v>509</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="40" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24">
+      <c r="B10" s="38">
         <v>1104</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="39" t="s">
         <v>511</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="40" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24">
+      <c r="B11" s="38">
         <v>1105</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="39" t="s">
         <v>513</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="40" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24">
+      <c r="B12" s="38">
         <v>1106</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="39" t="s">
         <v>515</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="40" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="24">
+      <c r="B13" s="38">
         <v>1107</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="39" t="s">
         <v>517</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="40" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="24">
+      <c r="B14" s="38">
         <v>1108</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="39" t="s">
         <v>519</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="40" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="24">
+      <c r="B15" s="38">
         <v>1109</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="39" t="s">
         <v>521</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="40" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="24">
+      <c r="B16" s="38">
         <v>1110</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="39" t="s">
         <v>523</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="40" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="24">
+      <c r="B17" s="38">
         <v>1111</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="39" t="s">
         <v>525</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="40" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="24">
+      <c r="B18" s="38">
         <v>1112</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="39" t="s">
         <v>527</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="40" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="24">
+      <c r="B19" s="38">
         <v>1113</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="39" t="s">
         <v>529</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="40" t="s">
         <v>530</v>
       </c>
     </row>
@@ -11102,63 +11115,63 @@
       <c r="B20" s="13">
         <v>1112</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="35" t="s">
         <v>532</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="36" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="27">
+      <c r="B21" s="41">
         <v>1114</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="42" t="s">
         <v>534</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="43" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="24">
+      <c r="B23" s="38">
         <v>1300</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="39" t="s">
         <v>538</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="40" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="24">
+      <c r="B24" s="38">
         <v>1555</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="39" t="s">
         <v>540</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="40" t="s">
         <v>541</v>
       </c>
     </row>
